--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
   <si>
     <t/>
   </si>
@@ -46,6 +46,66 @@
   </si>
   <si>
     <t>//button[normalize-space()='Login']</t>
+  </si>
+  <si>
+    <t>UM_clickAdmin</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='Admin']</t>
+  </si>
+  <si>
+    <t>UM_clickAddUser</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div[2]/div[1]/button</t>
+  </si>
+  <si>
+    <t>UM_userRole</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div/form/div[1]/div/div[1]/div/div[2]/div/div/div[1]</t>
+  </si>
+  <si>
+    <t>UM_employeeName</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div/form/div[1]/div/div[2]/div/div[2]/div/div/input</t>
+  </si>
+  <si>
+    <t>UM_status</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div/form/div[1]/div/div[3]/div/div[2]/div/div</t>
+  </si>
+  <si>
+    <t>UM_userName</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div/form/div[1]/div/div[4]/div/div[2]/input</t>
+  </si>
+  <si>
+    <t>UM_password</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div/form/div[2]/div/div[1]/div/div[2]/input</t>
+  </si>
+  <si>
+    <t>UM_confirmPassword</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div/form/div[2]/div/div[2]/div/div[2]/input</t>
+  </si>
+  <si>
+    <t>UM_saveButton</t>
+  </si>
+  <si>
+    <t>//button[normalize-space()='Save']</t>
+  </si>
+  <si>
+    <t>UM_toastMessage</t>
+  </si>
+  <si>
+    <t>//*[@id="oxd-toaster_1"]/div/div[1]/div[2]/p[2]</t>
   </si>
 </sst>
 </file>
@@ -90,7 +150,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -153,34 +213,166 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
   <si>
     <t/>
   </si>
@@ -106,6 +106,24 @@
   </si>
   <si>
     <t>//*[@id="oxd-toaster_1"]/div/div[1]/div[2]/p[2]</t>
+  </si>
+  <si>
+    <t>UM_searchUsername</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[1]/div/div[1]/div/div[2]/input</t>
+  </si>
+  <si>
+    <t>UM_searchButton</t>
+  </si>
+  <si>
+    <t>(//button[normalize-space()='Search'])</t>
+  </si>
+  <si>
+    <t>UM_searchResultUsername</t>
+  </si>
+  <si>
+    <t>(//div[contains(text(),'Admin')])</t>
   </si>
 </sst>
 </file>
@@ -150,7 +168,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -323,35 +341,35 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -373,6 +391,17 @@
         <v>0</v>
       </c>
       <c r="C20" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C21" t="s" s="0">
         <v>0</v>
       </c>
     </row>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
   <si>
     <t/>
   </si>
@@ -124,6 +124,21 @@
   </si>
   <si>
     <t>(//div[contains(text(),'Admin')])</t>
+  </si>
+  <si>
+    <t>UM_searchUserRole</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[1]/div/div[2]/div/div[2]/div/div</t>
+  </si>
+  <si>
+    <t>UM_selectUserRole</t>
+  </si>
+  <si>
+    <t>UM_searchResultUserRole</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div[2]/div[3]/div/div[2]/div[1]/div/div[3]/div</t>
   </si>
 </sst>
 </file>
@@ -374,35 +389,35 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="46">
   <si>
     <t/>
   </si>
@@ -139,6 +139,18 @@
   </si>
   <si>
     <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div[2]/div[3]/div/div[2]/div[1]/div/div[3]/div</t>
+  </si>
+  <si>
+    <t>UM_searchEmployeeName</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div[1]/div[2]/form/div[1]/div/div[3]/div/div[2]/div/div/input</t>
+  </si>
+  <si>
+    <t>UM_searchResultEmployeeName</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div[2]/div[3]/div/div[2]/div/div/div[4]/div</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -418,6 +430,116 @@
       </c>
       <c r="C21" t="s" s="0">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="50">
   <si>
     <t/>
   </si>
@@ -151,6 +151,18 @@
   </si>
   <si>
     <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div[2]/div[3]/div/div[2]/div/div/div[4]/div</t>
+  </si>
+  <si>
+    <t>UM_deleteButton</t>
+  </si>
+  <si>
+    <t>//div[@class='orangehrm-container']//div[3]//div[1]//div[6]//div[1]//button[1]//i[1]</t>
+  </si>
+  <si>
+    <t>UM_deleteConfirmationButton</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[3]/div/div/div/div[3]/button[2]</t>
   </si>
 </sst>
 </file>
@@ -456,24 +468,24 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">

--- a/data/locatorsRepository.xlsx
+++ b/data/locatorsRepository.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="58">
   <si>
     <t/>
   </si>
@@ -163,6 +163,30 @@
   </si>
   <si>
     <t>//*[@id="app"]/div[3]/div/div/div/div[3]/button[2]</t>
+  </si>
+  <si>
+    <t>JB_clickJob</t>
+  </si>
+  <si>
+    <t>//span[normalize-space()='Job']</t>
+  </si>
+  <si>
+    <t>JB_clickJobTitle</t>
+  </si>
+  <si>
+    <t>//a[normalize-space()='Job Titles']</t>
+  </si>
+  <si>
+    <t>JB_deleteButton</t>
+  </si>
+  <si>
+    <t>//*[@id="app"]/div[1]/div[2]/div[2]/div/div/div[3]/div/div[2]/div[3]/div/div[4]/div/button[1]/i</t>
+  </si>
+  <si>
+    <t>JB_deleteConfirmationButton</t>
+  </si>
+  <si>
+    <t>JB_toastMessage</t>
   </si>
 </sst>
 </file>
@@ -207,7 +231,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -490,57 +514,57 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -551,6 +575,105 @@
         <v>0</v>
       </c>
       <c r="C31" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s" s="0">
         <v>0</v>
       </c>
     </row>
